--- a/线路条件数据.xlsx
+++ b/线路条件数据.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E99B4C-7207-46B0-B599-3BA8FB9DCF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24760" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="station" sheetId="1" r:id="rId1"/>
@@ -13,10 +12,18 @@
     <sheet name="grad" sheetId="5" r:id="rId3"/>
     <sheet name="BasicInfo" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -25,307 +32,275 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
+    <t>限速起点（m）</t>
+  </si>
+  <si>
+    <t>限速终点（m）</t>
+  </si>
+  <si>
+    <t>限速值（km/h）</t>
+  </si>
+  <si>
+    <t>站停时间（s）</t>
+  </si>
+  <si>
     <t>站台名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限速起点（m）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限速终点（m）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限速值（km/h）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲线标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右JD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右JD2</t>
-  </si>
-  <si>
-    <t>右JD3</t>
-  </si>
-  <si>
-    <t>右JD4</t>
-  </si>
-  <si>
-    <t>右JD5</t>
-  </si>
-  <si>
-    <t>右JD6</t>
-  </si>
-  <si>
-    <t>右JD7</t>
-  </si>
-  <si>
-    <t>右JD8</t>
-  </si>
-  <si>
-    <t>右JD9</t>
-  </si>
-  <si>
-    <t>右JD10</t>
-  </si>
-  <si>
-    <t>右JD11</t>
-  </si>
-  <si>
-    <t>右JD12</t>
-  </si>
-  <si>
-    <t>右JD13</t>
+  </si>
+  <si>
+    <t>站台1</t>
+  </si>
+  <si>
+    <t>站台2</t>
+  </si>
+  <si>
+    <t>站台3</t>
+  </si>
+  <si>
+    <t>站台4</t>
+  </si>
+  <si>
+    <t>站台5</t>
+  </si>
+  <si>
+    <t>站台6</t>
+  </si>
+  <si>
+    <t>站台7</t>
+  </si>
+  <si>
+    <t>站台8</t>
+  </si>
+  <si>
+    <t>站台9</t>
+  </si>
+  <si>
+    <t>站台10</t>
+  </si>
+  <si>
+    <t>站台11</t>
+  </si>
+  <si>
+    <t>站台12</t>
+  </si>
+  <si>
+    <t>站台13</t>
+  </si>
+  <si>
+    <t>站台14</t>
+  </si>
+  <si>
+    <t>站台15</t>
+  </si>
+  <si>
+    <t>站台16</t>
+  </si>
+  <si>
+    <t>站台17</t>
+  </si>
+  <si>
+    <t>站台18</t>
+  </si>
+  <si>
+    <t>站台19</t>
+  </si>
+  <si>
+    <t>站台20</t>
+  </si>
+  <si>
+    <t>站台21</t>
   </si>
   <si>
     <t>曲线半径
 （m）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>曲线超高
 （mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临界速度
+（km/h）</t>
   </si>
   <si>
     <t>线路限制速度
 （km/h）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>曲线设计速度
 （km/h）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临界速度
-（km/h）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线标识</t>
+  </si>
+  <si>
+    <t>右JD1</t>
+  </si>
+  <si>
+    <t>右JD2</t>
+  </si>
+  <si>
+    <t>右JD3</t>
+  </si>
+  <si>
+    <t>右JD4</t>
+  </si>
+  <si>
+    <t>右JD5</t>
+  </si>
+  <si>
+    <t>右JD6</t>
+  </si>
+  <si>
+    <t>右JD7</t>
+  </si>
+  <si>
+    <t>右JD8</t>
+  </si>
+  <si>
+    <t>右JD9</t>
+  </si>
+  <si>
+    <t>右JD10</t>
+  </si>
+  <si>
+    <t>右JD11</t>
+  </si>
+  <si>
+    <t>右JD12</t>
+  </si>
+  <si>
+    <t>右JD13</t>
+  </si>
+  <si>
+    <t>右JD14</t>
+  </si>
+  <si>
+    <t>右JD15</t>
+  </si>
+  <si>
+    <t>右JD16</t>
+  </si>
+  <si>
+    <t>右JD17</t>
+  </si>
+  <si>
+    <t>右JD18</t>
+  </si>
+  <si>
+    <t>右JD19</t>
+  </si>
+  <si>
+    <t>右JD20</t>
+  </si>
+  <si>
+    <t>右JD21</t>
+  </si>
+  <si>
+    <t>右JD22</t>
+  </si>
+  <si>
+    <t>右JD23</t>
+  </si>
+  <si>
+    <t>右JD24</t>
+  </si>
+  <si>
+    <t>右JD25</t>
+  </si>
+  <si>
+    <t>右JD26</t>
+  </si>
+  <si>
+    <t>右JD27</t>
+  </si>
+  <si>
+    <t>右JD28</t>
+  </si>
+  <si>
+    <t>右JD29</t>
+  </si>
+  <si>
+    <t>右JD30</t>
+  </si>
+  <si>
+    <t>右JD31</t>
+  </si>
+  <si>
+    <t>右JD32</t>
+  </si>
+  <si>
+    <t>右JD33</t>
+  </si>
+  <si>
+    <t>坡道始点（m）</t>
+  </si>
+  <si>
+    <t>坡道终点（m）</t>
+  </si>
+  <si>
+    <t>坡度</t>
+  </si>
+  <si>
+    <t>上下坡标志</t>
   </si>
   <si>
     <t>上坡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下坡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坡度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坡道始点（m）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坡道终点（m）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站停时间（s）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右JD14</t>
-  </si>
-  <si>
-    <t>右JD15</t>
-  </si>
-  <si>
-    <t>右JD16</t>
-  </si>
-  <si>
-    <t>右JD17</t>
-  </si>
-  <si>
-    <t>右JD18</t>
-  </si>
-  <si>
-    <t>右JD19</t>
-  </si>
-  <si>
-    <t>右JD20</t>
-  </si>
-  <si>
-    <t>右JD21</t>
-  </si>
-  <si>
-    <t>右JD22</t>
-  </si>
-  <si>
-    <t>右JD23</t>
-  </si>
-  <si>
-    <t>右JD24</t>
-  </si>
-  <si>
-    <t>右JD25</t>
-  </si>
-  <si>
-    <t>右JD26</t>
-  </si>
-  <si>
-    <t>右JD27</t>
-  </si>
-  <si>
-    <t>右JD28</t>
-  </si>
-  <si>
-    <t>右JD29</t>
-  </si>
-  <si>
-    <t>右JD30</t>
-  </si>
-  <si>
-    <t>右JD31</t>
-  </si>
-  <si>
-    <t>右JD32</t>
-  </si>
-  <si>
-    <t>右JD33</t>
-  </si>
-  <si>
-    <t>上下坡标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>启动加速度（m/s2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>牵引加速度（m/s2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>紧急制动率（m/s2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>常用制动率（m/s2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>车长/m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>制动建立时延/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>牵引切断延时/s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>旋转质量系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ATP余量（km/h）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ATO余量（km/h）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最大仿真距离（m）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站台1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>站台2</t>
-  </si>
-  <si>
-    <t>站台3</t>
-  </si>
-  <si>
-    <t>站台4</t>
-  </si>
-  <si>
-    <t>站台5</t>
-  </si>
-  <si>
-    <t>站台6</t>
-  </si>
-  <si>
-    <t>站台7</t>
-  </si>
-  <si>
-    <t>站台8</t>
-  </si>
-  <si>
-    <t>站台9</t>
-  </si>
-  <si>
-    <t>站台10</t>
-  </si>
-  <si>
-    <t>站台11</t>
-  </si>
-  <si>
-    <t>站台12</t>
-  </si>
-  <si>
-    <t>站台13</t>
-  </si>
-  <si>
-    <t>站台14</t>
-  </si>
-  <si>
-    <t>站台15</t>
-  </si>
-  <si>
-    <t>站台16</t>
-  </si>
-  <si>
-    <t>站台17</t>
-  </si>
-  <si>
-    <t>站台18</t>
-  </si>
-  <si>
-    <t>站台19</t>
-  </si>
-  <si>
-    <t>站台20</t>
-  </si>
-  <si>
-    <t>站台21</t>
   </si>
   <si>
     <t>线路最大限速（km/h）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -333,11 +308,162 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,8 +476,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -359,29 +671,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -639,50 +1237,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.3303571428571" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" customWidth="1"/>
-    <col min="4" max="5" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5803571428571" customWidth="1"/>
+    <col min="4" max="5" width="15.5803571428571" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>357</v>
       </c>
@@ -696,10 +1289,10 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1292.3</v>
       </c>
@@ -713,10 +1306,10 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -730,10 +1323,10 @@
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3900.5</v>
       </c>
@@ -747,10 +1340,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5274.085</v>
       </c>
@@ -764,10 +1357,10 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6159.5</v>
       </c>
@@ -781,10 +1374,10 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7364.8</v>
       </c>
@@ -798,10 +1391,10 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8241.5</v>
       </c>
@@ -815,10 +1408,10 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9249.9</v>
       </c>
@@ -832,10 +1425,10 @@
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10389</v>
       </c>
@@ -849,10 +1442,10 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11720</v>
       </c>
@@ -866,10 +1459,10 @@
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12960.6</v>
       </c>
@@ -883,10 +1476,10 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>14271.786</v>
       </c>
@@ -900,15 +1493,15 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>15053.888000000001</v>
+        <v>15053.888</v>
       </c>
       <c r="B15">
-        <v>15211.888000000001</v>
+        <v>15211.888</v>
       </c>
       <c r="C15">
         <v>60</v>
@@ -917,15 +1510,15 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>15918.237999999999</v>
+        <v>15918.238</v>
       </c>
       <c r="B16">
-        <v>16076.237999999999</v>
+        <v>16076.238</v>
       </c>
       <c r="C16">
         <v>60</v>
@@ -934,10 +1527,10 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16821.502</v>
       </c>
@@ -951,15 +1544,15 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
-        <v>18285.901999999998</v>
+        <v>18285.902</v>
       </c>
       <c r="B18">
-        <v>18443.901999999998</v>
+        <v>18443.902</v>
       </c>
       <c r="C18">
         <v>60</v>
@@ -968,10 +1561,10 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>19191.502</v>
       </c>
@@ -985,15 +1578,15 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
-        <v>20892.539000000001</v>
+        <v>20892.539</v>
       </c>
       <c r="B20">
-        <v>21050.539000000001</v>
+        <v>21050.539</v>
       </c>
       <c r="C20">
         <v>60</v>
@@ -1002,15 +1595,15 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
-        <v>22174.166000000001</v>
+        <v>22174.166</v>
       </c>
       <c r="B21">
-        <v>22332.166000000001</v>
+        <v>22332.166</v>
       </c>
       <c r="C21">
         <v>60</v>
@@ -1019,15 +1612,15 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
-        <v>23194.799999999999</v>
+        <v>23194.8</v>
       </c>
       <c r="B22">
-        <v>23352.799999999999</v>
+        <v>23352.8</v>
       </c>
       <c r="C22">
         <v>60</v>
@@ -1036,70 +1629,71 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.33035714285714" customWidth="1"/>
+    <col min="2" max="2" width="11.3303571428571" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33035714285714" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" customWidth="1"/>
+    <col min="8" max="8" width="13.8303571428571" customWidth="1"/>
+    <col min="9" max="9" width="15.5803571428571" customWidth="1"/>
+    <col min="10" max="10" width="12.0803571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="51" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>615.25900000000001</v>
+        <v>615.259</v>
       </c>
       <c r="B2">
         <v>1137.367</v>
@@ -1126,15 +1720,15 @@
         <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1465.213</v>
       </c>
       <c r="B3">
-        <v>1595.2080000000001</v>
+        <v>1595.208</v>
       </c>
       <c r="C3">
         <v>1200</v>
@@ -1158,15 +1752,15 @@
         <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>1683.8969999999999</v>
+        <v>1683.897</v>
       </c>
       <c r="B4">
-        <v>1836.7750000000001</v>
+        <v>1836.775</v>
       </c>
       <c r="C4">
         <v>1500</v>
@@ -1190,15 +1784,15 @@
         <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2532.002</v>
       </c>
       <c r="B5">
-        <v>2754.2289999999998</v>
+        <v>2754.229</v>
       </c>
       <c r="C5">
         <v>3000</v>
@@ -1222,10 +1816,10 @@
         <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3098.069</v>
       </c>
@@ -1254,15 +1848,15 @@
         <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
-        <v>3760.8440000000001</v>
+        <v>3760.844</v>
       </c>
       <c r="B7">
-        <v>3853.8490000000002</v>
+        <v>3853.849</v>
       </c>
       <c r="C7">
         <v>1500</v>
@@ -1286,15 +1880,15 @@
         <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
-        <v>4656.2610000000004</v>
+        <v>4656.261</v>
       </c>
       <c r="B8">
-        <v>4968.8209999999999</v>
+        <v>4968.821</v>
       </c>
       <c r="C8">
         <v>4500</v>
@@ -1318,15 +1912,15 @@
         <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
-        <v>5078.6980000000003</v>
+        <v>5078.698</v>
       </c>
       <c r="B9">
-        <v>5197.8630000000003</v>
+        <v>5197.863</v>
       </c>
       <c r="C9">
         <v>2000</v>
@@ -1350,15 +1944,15 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>5605.473</v>
       </c>
       <c r="B10">
-        <v>5839.2839999999997</v>
+        <v>5839.284</v>
       </c>
       <c r="C10">
         <v>4400</v>
@@ -1382,15 +1976,15 @@
         <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
-        <v>6780.7870000000003</v>
+        <v>6780.787</v>
       </c>
       <c r="B11">
-        <v>6974.5240000000003</v>
+        <v>6974.524</v>
       </c>
       <c r="C11">
         <v>500</v>
@@ -1414,15 +2008,15 @@
         <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
-        <v>7785.7259999999997</v>
+        <v>7785.726</v>
       </c>
       <c r="B12">
-        <v>8004.9669999999996</v>
+        <v>8004.967</v>
       </c>
       <c r="C12">
         <v>600</v>
@@ -1446,15 +2040,15 @@
         <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
-        <v>8862.1029999999992</v>
+        <v>8862.103</v>
       </c>
       <c r="B13">
-        <v>8918.9110000000001</v>
+        <v>8918.911</v>
       </c>
       <c r="C13">
         <v>5000</v>
@@ -1478,15 +2072,15 @@
         <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
-        <v>8972.5679999999993</v>
+        <v>8972.568</v>
       </c>
       <c r="B14">
-        <v>9029.3770000000004</v>
+        <v>9029.377</v>
       </c>
       <c r="C14">
         <v>5000</v>
@@ -1510,15 +2104,15 @@
         <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
-        <v>9709.5840000000007</v>
+        <v>9709.584</v>
       </c>
       <c r="B15">
-        <v>9813.6769999999997</v>
+        <v>9813.677</v>
       </c>
       <c r="C15">
         <v>1500</v>
@@ -1542,12 +2136,12 @@
         <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
-        <v>9991.7870000000003</v>
+        <v>9991.787</v>
       </c>
       <c r="B16">
         <v>10236.919</v>
@@ -1574,10 +2168,10 @@
         <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>11015.69</v>
       </c>
@@ -1606,12 +2200,12 @@
         <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
-        <v>11236.967000000001</v>
+        <v>11236.967</v>
       </c>
       <c r="B18">
         <v>11505.436</v>
@@ -1638,15 +2232,15 @@
         <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>11526.26</v>
       </c>
       <c r="B19">
-        <v>11703.781000000001</v>
+        <v>11703.781</v>
       </c>
       <c r="C19">
         <v>500</v>
@@ -1670,12 +2264,12 @@
         <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
-        <v>12351.735000000001</v>
+        <v>12351.735</v>
       </c>
       <c r="B20">
         <v>12423.525</v>
@@ -1702,12 +2296,12 @@
         <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
-        <v>12724.513999999999</v>
+        <v>12724.514</v>
       </c>
       <c r="B21">
         <v>12822.59</v>
@@ -1734,10 +2328,10 @@
         <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>13398.68</v>
       </c>
@@ -1766,12 +2360,12 @@
         <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
-        <v>14015.255999999999</v>
+        <v>14015.256</v>
       </c>
       <c r="B23">
         <v>14094.078</v>
@@ -1798,15 +2392,15 @@
         <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>14510.036</v>
       </c>
       <c r="B24">
-        <v>14612.156000000001</v>
+        <v>14612.156</v>
       </c>
       <c r="C24">
         <v>2000</v>
@@ -1830,15 +2424,15 @@
         <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>14901.588</v>
       </c>
       <c r="B25">
-        <v>15024.762000000001</v>
+        <v>15024.762</v>
       </c>
       <c r="C25">
         <v>3000</v>
@@ -1862,15 +2456,15 @@
         <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>15324.107</v>
       </c>
       <c r="B26">
-        <v>15523.459000000001</v>
+        <v>15523.459</v>
       </c>
       <c r="C26">
         <v>500</v>
@@ -1894,10 +2488,10 @@
         <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>15606.19</v>
       </c>
@@ -1926,15 +2520,15 @@
         <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>16103.938</v>
       </c>
       <c r="B28">
-        <v>16713.296999999999</v>
+        <v>16713.297</v>
       </c>
       <c r="C28">
         <v>350</v>
@@ -1958,10 +2552,10 @@
         <v>68</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>17677.394</v>
       </c>
@@ -1990,15 +2584,15 @@
         <v>87</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>18550.249</v>
       </c>
       <c r="B30">
-        <v>18822.099999999999</v>
+        <v>18822.1</v>
       </c>
       <c r="C30">
         <v>450</v>
@@ -2022,12 +2616,12 @@
         <v>80</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
-        <v>18975.904999999999</v>
+        <v>18975.905</v>
       </c>
       <c r="B31">
         <v>19162.732</v>
@@ -2054,15 +2648,15 @@
         <v>80</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>19452.43</v>
       </c>
       <c r="B32">
-        <v>20180.522000000001</v>
+        <v>20180.522</v>
       </c>
       <c r="C32">
         <v>365</v>
@@ -2086,10 +2680,10 @@
         <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>21663.552</v>
       </c>
@@ -2118,10 +2712,10 @@
         <v>87</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>22581.216</v>
       </c>
@@ -2150,46 +2744,47 @@
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="4" width="17.83203125" customWidth="1"/>
+    <col min="3" max="4" width="17.8303571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>357</v>
       </c>
@@ -2203,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>578.6</v>
       </c>
@@ -2223,13 +2818,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>769.1</v>
       </c>
@@ -2243,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1116</v>
       </c>
@@ -2257,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1540</v>
       </c>
@@ -2265,13 +2860,13 @@
         <v>1990</v>
       </c>
       <c r="C6">
-        <v>9.3469999999999995</v>
+        <v>9.347</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1990</v>
       </c>
@@ -2285,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>2612</v>
       </c>
@@ -2293,13 +2888,13 @@
         <v>3662</v>
       </c>
       <c r="C8">
-        <v>3.0249999999999999</v>
+        <v>3.025</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>3662</v>
       </c>
@@ -2313,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>3860</v>
       </c>
@@ -2327,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>4170</v>
       </c>
@@ -2341,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>4720</v>
       </c>
@@ -2355,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>5150</v>
       </c>
@@ -2369,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>5480</v>
       </c>
@@ -2383,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>6070</v>
       </c>
@@ -2397,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>6660</v>
       </c>
@@ -2411,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>6840</v>
       </c>
@@ -2425,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>7106.67</v>
       </c>
@@ -2439,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>7280</v>
       </c>
@@ -2453,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>7550</v>
       </c>
@@ -2467,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>7890</v>
       </c>
@@ -2475,13 +3070,13 @@
         <v>8200</v>
       </c>
       <c r="C21">
-        <v>6.4340000000000002</v>
+        <v>6.434</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>8200</v>
       </c>
@@ -2495,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>8490</v>
       </c>
@@ -2509,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>9200</v>
       </c>
@@ -2523,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>9730</v>
       </c>
@@ -2537,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>10370</v>
       </c>
@@ -2551,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>10650</v>
       </c>
@@ -2565,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>11110</v>
       </c>
@@ -2579,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>11370</v>
       </c>
@@ -2587,13 +3182,13 @@
         <v>11660</v>
       </c>
       <c r="C29">
-        <v>18.071999999999999</v>
+        <v>18.072</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>11660</v>
       </c>
@@ -2607,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>12320</v>
       </c>
@@ -2621,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>12890</v>
       </c>
@@ -2635,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>13210</v>
       </c>
@@ -2649,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>13650</v>
       </c>
@@ -2657,13 +3252,13 @@
         <v>14090</v>
       </c>
       <c r="C34">
-        <v>8.3879999999999999</v>
+        <v>8.388</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>14090</v>
       </c>
@@ -2677,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>14530</v>
       </c>
@@ -2685,13 +3280,13 @@
         <v>15020</v>
       </c>
       <c r="C36">
-        <v>13.141999999999999</v>
+        <v>13.142</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>15020</v>
       </c>
@@ -2705,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>15250</v>
       </c>
@@ -2713,13 +3308,13 @@
         <v>15830</v>
       </c>
       <c r="C38">
-        <v>9.8539999999999992</v>
+        <v>9.854</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>15830</v>
       </c>
@@ -2733,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>16110</v>
       </c>
@@ -2747,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>16460</v>
       </c>
@@ -2761,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>16770</v>
       </c>
@@ -2775,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>17400</v>
       </c>
@@ -2789,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>17670</v>
       </c>
@@ -2803,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>17910</v>
       </c>
@@ -2817,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>18240</v>
       </c>
@@ -2831,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>18520</v>
       </c>
@@ -2845,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>18850</v>
       </c>
@@ -2859,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>19100</v>
       </c>
@@ -2873,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>19390</v>
       </c>
@@ -2881,13 +3476,13 @@
         <v>20330</v>
       </c>
       <c r="C50">
-        <v>8.3450000000000006</v>
+        <v>8.345</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>20330</v>
       </c>
@@ -2901,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>20800</v>
       </c>
@@ -2915,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>21070</v>
       </c>
@@ -2929,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>21590</v>
       </c>
@@ -2937,13 +3532,13 @@
         <v>21980</v>
       </c>
       <c r="C54">
-        <v>10.965999999999999</v>
+        <v>10.966</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>21980</v>
       </c>
@@ -2957,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>22560</v>
       </c>
@@ -2971,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>22820</v>
       </c>
@@ -2979,13 +3574,13 @@
         <v>23070</v>
       </c>
       <c r="C57">
-        <v>16.934000000000001</v>
+        <v>16.934</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>23070</v>
       </c>
@@ -3000,65 +3595,66 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -3068,7 +3664,7 @@
       <c r="C2">
         <v>1.2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>0.5</v>
       </c>
       <c r="E2">
@@ -3086,7 +3682,7 @@
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>5</v>
       </c>
       <c r="K2">
@@ -3096,7 +3692,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:10">
       <c r="D3">
         <v>0.8</v>
       </c>
@@ -3105,8 +3701,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/线路条件数据.xlsx
+++ b/线路条件数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24760" windowHeight="12240" activeTab="3"/>
+    <workbookView windowWidth="16500" windowHeight="10200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="station" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,13 +307,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -772,148 +765,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2760,7 +2753,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3606,12 +3599,15 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
+    <col min="8" max="8" width="24.6964285714286" customWidth="1"/>
+    <col min="9" max="9" width="16.2232142857143" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="20.6607142857143" customWidth="1"/>
   </cols>
